--- a/data/536/BPS/LMMQ_historical.xlsx
+++ b/data/536/BPS/LMMQ_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK2"/>
+  <dimension ref="A1:DL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,11 @@
           <t>2021-Q2</t>
         </is>
       </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1268,12 +1273,27 @@
       <c r="DE2" t="n">
         <v>151.76</v>
       </c>
-      <c r="DF2" t="inlineStr"/>
-      <c r="DG2" t="inlineStr"/>
-      <c r="DH2" t="inlineStr"/>
-      <c r="DI2" t="inlineStr"/>
-      <c r="DJ2" t="inlineStr"/>
-      <c r="DK2" t="inlineStr"/>
+      <c r="DF2" t="n">
+        <v>148.15</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>131.81</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>138.74</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>2.57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
